--- a/烧烤清单.xlsx
+++ b/烧烤清单.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>江苏明月智能科技有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -544,6 +544,22 @@
   </si>
   <si>
     <t>烧烤清单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +798,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1085,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1119,53 +1141,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1210,18 +1219,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,49 +1276,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2964,20 +2990,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="48"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="48"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2988,10 +3014,10 @@
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3002,10 +3028,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3033,144 +3059,144 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="16"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="16"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="16"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -3183,11 +3209,9 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="B8:F11"/>
     <mergeCell ref="C26:C27"/>
@@ -3196,9 +3220,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="E26:F27"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="E20:F21"/>
     <mergeCell ref="B20:B21"/>
@@ -3207,9 +3228,14 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3554,60 +3580,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
@@ -3645,7 +3671,7 @@
       <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="15">
         <v>44653</v>
       </c>
     </row>
@@ -3867,13 +3893,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B1:C2"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B1:C2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3885,380 +3911,396 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="67"/>
-    <col min="2" max="2" width="13" style="67" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="67" customWidth="1"/>
-    <col min="4" max="5" width="9" style="67"/>
-    <col min="6" max="6" width="10.5" style="67" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="67" customWidth="1"/>
-    <col min="8" max="9" width="9" style="67"/>
-    <col min="10" max="10" width="10" style="67" customWidth="1"/>
-    <col min="11" max="11" width="20" style="67" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="13" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="19" customWidth="1"/>
+    <col min="4" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="10.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="19" customWidth="1"/>
+    <col min="8" max="9" width="9" style="19"/>
+    <col min="10" max="10" width="10" style="19" customWidth="1"/>
+    <col min="11" max="11" width="20" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="M3" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64" t="s">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64" t="s">
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60" t="s">
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63" t="s">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64" t="s">
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64" t="s">
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64" t="s">
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63" t="s">
+      <c r="I18" s="66"/>
+      <c r="J18" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64" t="s">
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64" t="s">
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="M3:M5"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F4:F6"/>
@@ -4275,7 +4317,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/烧烤清单.xlsx
+++ b/烧烤清单.xlsx
@@ -10,6 +10,8 @@
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="版本变更履历" sheetId="2" r:id="rId2"/>
     <sheet name="烧烤清单" sheetId="3" r:id="rId3"/>
+    <sheet name="疫情防控" sheetId="4" r:id="rId4"/>
+    <sheet name="活动主题" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本变更履历!$A:$H</definedName>
@@ -182,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>江苏明月智能科技有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -560,6 +562,36 @@
   </si>
   <si>
     <t>零食</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒无情
+兄弟有情
+吃完这顿
+没下顿
+天下没有不散的筵席
+世上却有不变的情谊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出门注意带好口罩
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加活动主题、疫情防控、非烧烤食材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘继宏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +792,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1107,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1157,23 +1207,17 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,46 +1263,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,8 +1327,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,13 +1348,15 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2990,20 +3049,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="21"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3014,10 +3073,10 @@
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3028,10 +3087,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3059,144 +3118,144 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="27"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="27"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="57" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="27"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -3209,6 +3268,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
@@ -3225,17 +3295,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3564,7 +3623,7 @@
   <dimension ref="B1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3580,60 +3639,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:7" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
@@ -3675,13 +3734,25 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+    <row r="8" spans="2:7" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="15">
+        <v>44653</v>
+      </c>
     </row>
     <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
@@ -3932,44 +4003,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="68" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -3978,134 +4049,134 @@
       <c r="G3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="69" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71" t="s">
+      <c r="M5" s="66"/>
+      <c r="N5" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66" t="s">
+      <c r="I10" s="69"/>
+      <c r="J10" s="69" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="18" t="s">
@@ -4113,53 +4184,53 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="66"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
         <v>82</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -4167,51 +4238,51 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66" t="s">
+      <c r="I18" s="69"/>
+      <c r="J18" s="69" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="18" t="s">
@@ -4219,27 +4290,27 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66" t="s">
+      <c r="I20" s="69"/>
+      <c r="J20" s="69" t="s">
         <v>90</v>
       </c>
       <c r="K20" s="18" t="s">
@@ -4247,37 +4318,37 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="18" t="s">
         <v>93</v>
       </c>
@@ -4286,8 +4357,8 @@
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="18" t="s">
         <v>94</v>
       </c>
@@ -4299,6 +4370,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="A1:K2"/>
@@ -4315,8 +4388,1143 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M36"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/烧烤清单.xlsx
+++ b/烧烤清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -574,11 +574,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">出门注意带好口罩
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>v1.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -592,6 +587,12 @@
   </si>
   <si>
     <t>乔成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.出门注意带好口罩
+2.请市外人员主动出示行程码和健康码以及48小时核酸报告，否则不予参加此活动。
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1208,13 +1209,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,37 +1313,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,13 +1349,13 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3049,20 +3050,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="53"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="53"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3073,10 +3074,10 @@
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3087,10 +3088,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3118,144 +3119,144 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -3268,6 +3269,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="E26:F27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
@@ -3284,17 +3296,6 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="B8:F11"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3641,10 +3642,10 @@
     <row r="1" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
@@ -3653,8 +3654,8 @@
     <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3665,8 +3666,8 @@
         <v>18</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3677,8 +3678,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3739,16 +3740,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="15">
         <v>44653</v>
@@ -3984,7 +3985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -4370,6 +4371,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
@@ -4386,8 +4389,6 @@
     <mergeCell ref="J20:J24"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4398,553 +4399,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="A1" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4966,561 +4967,561 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/烧烤清单.xlsx
+++ b/烧烤清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -574,6 +574,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">出门注意带好口罩
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>v1.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -587,12 +592,6 @@
   </si>
   <si>
     <t>乔成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.出门注意带好口罩
-2.请市外人员主动出示行程码和健康码以及48小时核酸报告，否则不予参加此活动。
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1209,44 +1208,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1313,6 +1281,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1349,13 +1348,13 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3050,20 +3049,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="27"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="27"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3074,10 +3073,10 @@
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3088,10 +3087,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3119,144 +3118,144 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="33"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="33"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="33"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="33"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -3269,17 +3268,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="E26:F27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
@@ -3296,6 +3284,17 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="B8:F11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3642,10 +3641,10 @@
     <row r="1" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
@@ -3654,8 +3653,8 @@
     <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3666,8 +3665,8 @@
         <v>18</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3678,8 +3677,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3740,16 +3739,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="15">
         <v>44653</v>
@@ -3985,7 +3984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -4371,8 +4370,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
@@ -4389,6 +4386,8 @@
     <mergeCell ref="J20:J24"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4399,553 +4398,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="A1" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4967,561 +4966,561 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/烧烤清单.xlsx
+++ b/烧烤清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -574,11 +574,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">出门注意带好口罩
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>v1.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -592,6 +587,12 @@
   </si>
   <si>
     <t>乔成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.出门注意带好口罩
+2.请市外人员主动出示行程码和健康码以及48小时核酸报告，否则不予参加此活动。
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1208,13 +1209,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,37 +1313,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,13 +1349,13 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3049,20 +3050,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="53"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="53"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3073,10 +3074,10 @@
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3087,10 +3088,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3118,144 +3119,144 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -3268,6 +3269,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="E26:F27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
@@ -3284,17 +3296,6 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="B8:F11"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3641,10 +3642,10 @@
     <row r="1" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
@@ -3653,8 +3654,8 @@
     <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3665,8 +3666,8 @@
         <v>18</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3677,8 +3678,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3739,16 +3740,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="15">
         <v>44653</v>
@@ -3984,7 +3985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -4370,6 +4371,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
@@ -4386,8 +4389,6 @@
     <mergeCell ref="J20:J24"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4398,553 +4399,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="A1" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4966,561 +4967,561 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
